--- a/P1/teams.xlsx
+++ b/P1/teams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\15082022---Rev---.net-cohort\P1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4C8D2C-4FF7-42CC-A2DF-0127A16224B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03EB26B2-5BFA-4D3A-9087-0229887790A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7B05EA2D-977E-4F40-B285-857D049CDF05}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Aaron Arnold</t>
   </si>
@@ -118,6 +118,12 @@
   </si>
   <si>
     <t>shoppingAPP</t>
+  </si>
+  <si>
+    <t>Ticketing Management APP</t>
+  </si>
+  <si>
+    <t>Ecommerce</t>
   </si>
 </sst>
 </file>
@@ -503,7 +509,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B5" sqref="B5:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,7 +522,9 @@
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -540,7 +548,9 @@
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
